--- a/biology/Botanique/Rafflesiales/Rafflesiales.xlsx
+++ b/biology/Botanique/Rafflesiales/Rafflesiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des
 Rafflesiales est un ordre des plantes dicotylédones. En classification de Cronquist (1981) il regroupe trois familles de plantes :
 Hydnoracées
 Mitrastémonacées
 Rafflesiacées
-La classification phylogénétique APG II (2003)[1] place les Hydnoracées dans l'ordre Piperales mais elle considère la position des Rafflesiacées et des Mitrastémonacées comme incertaine, ce qui fait que l'ordre des Rafflesiales est, au moins provisoirement, abandonné.
+La classification phylogénétique APG II (2003) place les Hydnoracées dans l'ordre Piperales mais elle considère la position des Rafflesiacées et des Mitrastémonacées comme incertaine, ce qui fait que l'ordre des Rafflesiales est, au moins provisoirement, abandonné.
 </t>
         </is>
       </c>
